--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Tonography with water provocation (procedure)</t>
+  </si>
+  <si>
+    <t>261665006</t>
+  </si>
+  <si>
+    <t>Unknown (qualifier value)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -394,7 +400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,18 +436,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -463,12 +477,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +495,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -85,7 +85,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing SNOMED CT codes representing a range of procedures used in the evaluation and management of stroke patients.</t>
+    <t>ValueSet enumerating swallowing screening/assessment procedures/tools used in stroke care.
+**Primary use-case**
+- Required binding for `StrokeSwallowProcedureProfile.code` to ensure the Procedure truly represents a swallow screening/assessment.
+**Secondary use-case**
+- Can also be used for `Procedure.used.concept` (R5) to explicitly document the tool used when:
+  - `Procedure.code` is generic, or
+  - you want a consistent field for “tool used” across multiple workflow variants.
+**Implementation note**
+- `SCT#261665006 'Unknown'´ is included only as a provisional development workaround; in production, prefer FHIR `dataAbsentReason` for missing data rather than “Unknown” as a procedure code.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>ValueSet enumerating swallowing screening/assessment procedures/tools used in stroke care.
-**Primary use-case**
-- Required binding for `StrokeSwallowProcedureProfile.code` to ensure the Procedure truly represents a swallow screening/assessment.
-**Secondary use-case**
-- Can also be used for `Procedure.used.concept` (R5) to explicitly document the tool used when:
-  - `Procedure.code` is generic, or
-  - you want a consistent field for “tool used” across multiple workflow variants.
 **Implementation note**
 - `SCT#261665006 'Unknown'´ is included only as a provisional development workaround; in production, prefer FHIR `dataAbsentReason` for missing data rather than “Unknown” as a procedure code.</t>
   </si>

--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
